--- a/งานมอบหมายที่ 8/แบบสอบถามสื่อสังคมออนไลน์.xlsx
+++ b/งานมอบหมายที่ 8/แบบสอบถามสื่อสังคมออนไลน์.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kronwarin\Desktop\งาน 2020\อ.บุรินทร์\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kronwarin\Desktop\งาน 2020\อ.บุรินทร์\งานมอบหมายที่ 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F415AEC6-8BBC-4F38-BD02-6239ABA937D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA980B-4C0D-45B1-90E5-E7020A1E27E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{63E1D804-64BE-42D3-B9DD-49B6AEC0F883}"/>
   </bookViews>
@@ -17,11 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$3:$E$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$3:$F$6</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -313,11 +308,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,23 +337,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -488,6 +483,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D3BC-43DE-B3AF-F3A55AE866BD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -530,6 +530,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D3BC-43DE-B3AF-F3A55AE866BD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -572,6 +577,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D3BC-43DE-B3AF-F3A55AE866BD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -614,6 +624,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D3BC-43DE-B3AF-F3A55AE866BD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4660,6 +4675,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-829C-47CA-8305-7F12F30CD635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4702,6 +4722,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-829C-47CA-8305-7F12F30CD635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4744,6 +4769,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-829C-47CA-8305-7F12F30CD635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4786,6 +4816,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-829C-47CA-8305-7F12F30CD635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -11043,6 +11078,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1F3F-4F02-9D97-04C9AA6D1500}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -11085,6 +11125,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1F3F-4F02-9D97-04C9AA6D1500}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -11127,6 +11172,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1F3F-4F02-9D97-04C9AA6D1500}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -11415,6 +11465,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AB2D-41F8-9BD5-9B3867D82885}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -11438,6 +11493,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AB2D-41F8-9BD5-9B3867D82885}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -11461,6 +11521,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-AB2D-41F8-9BD5-9B3867D82885}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -11484,6 +11549,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AB2D-41F8-9BD5-9B3867D82885}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -11507,6 +11577,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-AB2D-41F8-9BD5-9B3867D82885}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -11783,6 +11858,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E6AF-440D-9DA1-ECD58FB58223}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -11806,6 +11886,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E6AF-440D-9DA1-ECD58FB58223}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -11829,6 +11914,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E6AF-440D-9DA1-ECD58FB58223}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -11852,6 +11942,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E6AF-440D-9DA1-ECD58FB58223}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -11875,6 +11970,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E6AF-440D-9DA1-ECD58FB58223}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -12151,6 +12251,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E336-4DC2-A2C4-07B97D38EFBB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -12174,6 +12279,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E336-4DC2-A2C4-07B97D38EFBB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -12197,6 +12307,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E336-4DC2-A2C4-07B97D38EFBB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -12220,6 +12335,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E336-4DC2-A2C4-07B97D38EFBB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -12243,6 +12363,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E336-4DC2-A2C4-07B97D38EFBB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -12519,6 +12644,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C982-40E0-B334-2D4D602369C5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -12542,6 +12672,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C982-40E0-B334-2D4D602369C5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -12565,6 +12700,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C982-40E0-B334-2D4D602369C5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -12588,6 +12728,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C982-40E0-B334-2D4D602369C5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -12611,6 +12756,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C982-40E0-B334-2D4D602369C5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -12887,6 +13037,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-26FD-4E15-A87C-518FD46BE9DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -12910,6 +13065,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-26FD-4E15-A87C-518FD46BE9DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -12933,6 +13093,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-26FD-4E15-A87C-518FD46BE9DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -12956,6 +13121,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-26FD-4E15-A87C-518FD46BE9DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -12979,6 +13149,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-26FD-4E15-A87C-518FD46BE9DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -37379,7 +37554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCFE374-4D4F-4BE0-9F22-47B17A29B1A8}">
   <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
@@ -37404,28 +37579,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
@@ -37434,43 +37609,43 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="17" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
     </row>
     <row r="3" spans="1:31" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
@@ -37500,30 +37675,30 @@
       <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="8"/>
       <c r="O3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="14"/>
+      <c r="P3" s="8"/>
       <c r="Q3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="12" t="s">
+      <c r="R3" s="8"/>
+      <c r="S3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:31" ht="23.25" x14ac:dyDescent="0.5">
@@ -37581,7 +37756,7 @@
       <c r="R4" s="2">
         <v>17</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>31</v>
       </c>
       <c r="T4" s="13"/>
@@ -37591,10 +37766,10 @@
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:31" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -37767,7 +37942,7 @@
       <c r="R7" s="7">
         <v>8</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="11" t="s">
         <v>28</v>
       </c>
       <c r="T7" s="13"/>
@@ -37779,10 +37954,10 @@
     <row r="8" spans="1:31" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="9">
         <v>55</v>
       </c>
       <c r="E8" s="4"/>
@@ -37863,7 +38038,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="T10" s="13"/>
@@ -37914,7 +38089,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S13" s="12" t="s">
+      <c r="S13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="T13" s="13"/>
@@ -37957,7 +38132,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S16" s="12" t="s">
+      <c r="S16" s="11" t="s">
         <v>32</v>
       </c>
       <c r="T16" s="13"/>
@@ -38000,7 +38175,7 @@
       </c>
     </row>
     <row r="19" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S19" s="12" t="s">
+      <c r="S19" s="11" t="s">
         <v>33</v>
       </c>
       <c r="T19" s="13"/>
@@ -38043,13 +38218,13 @@
       </c>
     </row>
     <row r="22" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S22" s="12" t="s">
+      <c r="S22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
     </row>
     <row r="23" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S23" s="2" t="s">
@@ -38086,13 +38261,13 @@
       </c>
     </row>
     <row r="25" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S25" s="12" t="s">
+      <c r="S25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
     </row>
     <row r="26" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S26" s="2" t="s">
@@ -38129,13 +38304,13 @@
       </c>
     </row>
     <row r="28" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S28" s="12" t="s">
+      <c r="S28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
     </row>
     <row r="29" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S29" s="2" t="s">
@@ -38172,13 +38347,13 @@
       </c>
     </row>
     <row r="31" spans="19:23" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="S31" s="12" t="s">
+      <c r="S31" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
     </row>
     <row r="32" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S32" s="2" t="s">
@@ -38215,13 +38390,13 @@
       </c>
     </row>
     <row r="34" spans="19:24" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S34" s="12" t="s">
+      <c r="S34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
       <c r="X34" s="3"/>
     </row>
     <row r="35" spans="19:24" ht="23.25" x14ac:dyDescent="0.5">
@@ -38261,13 +38436,13 @@
       <c r="X36" s="3"/>
     </row>
     <row r="37" spans="19:24" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S37" s="12" t="s">
+      <c r="S37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
     </row>
     <row r="38" spans="19:24" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S38" s="2" t="s">
@@ -38304,13 +38479,13 @@
       </c>
     </row>
     <row r="40" spans="19:24" ht="36" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="S40" s="12" t="s">
+      <c r="S40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
     </row>
     <row r="41" spans="19:24" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S41" s="2" t="s">
@@ -38347,13 +38522,13 @@
       </c>
     </row>
     <row r="43" spans="19:24" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S43" s="12" t="s">
+      <c r="S43" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
     </row>
     <row r="44" spans="19:24" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S44" s="2" t="s">
@@ -38390,13 +38565,13 @@
       </c>
     </row>
     <row r="46" spans="19:24" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S46" s="12" t="s">
+      <c r="S46" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
     </row>
     <row r="47" spans="19:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="S47" s="2" t="s">
@@ -38433,13 +38608,13 @@
       </c>
     </row>
     <row r="49" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S49" s="12" t="s">
+      <c r="S49" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
     </row>
     <row r="50" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S50" s="2" t="s">
@@ -38476,13 +38651,13 @@
       </c>
     </row>
     <row r="52" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S52" s="12" t="s">
+      <c r="S52" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
     </row>
     <row r="53" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S53" s="2" t="s">
@@ -38519,13 +38694,13 @@
       </c>
     </row>
     <row r="55" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S55" s="12" t="s">
+      <c r="S55" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
     </row>
     <row r="56" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S56" s="2" t="s">
@@ -38562,13 +38737,13 @@
       </c>
     </row>
     <row r="58" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S58" s="12" t="s">
+      <c r="S58" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
     </row>
     <row r="59" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S59" s="2" t="s">
@@ -38605,13 +38780,13 @@
       </c>
     </row>
     <row r="61" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S61" s="12" t="s">
+      <c r="S61" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="12"/>
-      <c r="W61" s="12"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
     </row>
     <row r="62" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S62" s="2" t="s">
@@ -38648,13 +38823,13 @@
       </c>
     </row>
     <row r="64" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S64" s="12" t="s">
+      <c r="S64" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
-      <c r="W64" s="12"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
     </row>
     <row r="65" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S65" s="2" t="s">
@@ -38691,13 +38866,13 @@
       </c>
     </row>
     <row r="67" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S67" s="12" t="s">
+      <c r="S67" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="T67" s="12"/>
-      <c r="U67" s="12"/>
-      <c r="V67" s="12"/>
-      <c r="W67" s="12"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11"/>
     </row>
     <row r="68" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S68" s="2" t="s">
@@ -38734,13 +38909,13 @@
       </c>
     </row>
     <row r="70" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S70" s="12" t="s">
+      <c r="S70" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
     </row>
     <row r="71" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S71" s="2" t="s">
@@ -38777,13 +38952,13 @@
       </c>
     </row>
     <row r="75" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="S75" s="12" t="s">
+      <c r="S75" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
     </row>
     <row r="76" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S76" s="2" t="s">
@@ -38821,22 +38996,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="S75:W75"/>
-    <mergeCell ref="S61:W61"/>
-    <mergeCell ref="S64:W64"/>
-    <mergeCell ref="S67:W67"/>
-    <mergeCell ref="S70:W70"/>
-    <mergeCell ref="S2:AC2"/>
-    <mergeCell ref="S46:W46"/>
-    <mergeCell ref="S49:W49"/>
-    <mergeCell ref="S52:W52"/>
-    <mergeCell ref="S55:W55"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="S4:W4"/>
     <mergeCell ref="S58:W58"/>
     <mergeCell ref="S31:W31"/>
     <mergeCell ref="S34:W34"/>
     <mergeCell ref="S37:W37"/>
     <mergeCell ref="S40:W40"/>
     <mergeCell ref="S43:W43"/>
+    <mergeCell ref="S2:AC2"/>
+    <mergeCell ref="S46:W46"/>
+    <mergeCell ref="S49:W49"/>
+    <mergeCell ref="S52:W52"/>
+    <mergeCell ref="S55:W55"/>
     <mergeCell ref="S22:W22"/>
     <mergeCell ref="S25:W25"/>
     <mergeCell ref="S28:W28"/>
@@ -38845,12 +39021,11 @@
     <mergeCell ref="S16:W16"/>
     <mergeCell ref="S7:W7"/>
     <mergeCell ref="S19:W19"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="S75:W75"/>
+    <mergeCell ref="S61:W61"/>
+    <mergeCell ref="S64:W64"/>
+    <mergeCell ref="S67:W67"/>
+    <mergeCell ref="S70:W70"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B5">
     <cfRule type="colorScale" priority="1">

--- a/งานมอบหมายที่ 8/แบบสอบถามสื่อสังคมออนไลน์.xlsx
+++ b/งานมอบหมายที่ 8/แบบสอบถามสื่อสังคมออนไลน์.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kronwarin\Desktop\งาน 2020\อ.บุรินทร์\งานมอบหมายที่ 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kronwarin\Desktop\งาน 2020\อ.บุรินทร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA980B-4C0D-45B1-90E5-E7020A1E27E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5802AD0-4FF5-4DF6-806D-AEC2CD0BF438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{63E1D804-64BE-42D3-B9DD-49B6AEC0F883}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -316,9 +317,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -335,6 +333,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,7 +486,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D3BC-43DE-B3AF-F3A55AE866BD}"/>
+                <c16:uniqueId val="{00000001-47F3-43AF-A1B8-4DD81AF7D117}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -532,7 +533,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D3BC-43DE-B3AF-F3A55AE866BD}"/>
+                <c16:uniqueId val="{00000003-47F3-43AF-A1B8-4DD81AF7D117}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -579,7 +580,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D3BC-43DE-B3AF-F3A55AE866BD}"/>
+                <c16:uniqueId val="{00000005-47F3-43AF-A1B8-4DD81AF7D117}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -626,7 +627,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-D3BC-43DE-B3AF-F3A55AE866BD}"/>
+                <c16:uniqueId val="{00000007-47F3-43AF-A1B8-4DD81AF7D117}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -856,9 +857,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="th-TH"/>
+              <a:rPr lang="th-TH" sz="1050"/>
               <a:t>คณะ</a:t>
             </a:r>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2834,31 +2836,313 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7561-4F75-9D69-67464CF7B019}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7561-4F75-9D69-67464CF7B019}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-15E0-4A2A-A112-DB58E87AB093}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-15E0-4A2A-A112-DB58E87AB093}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-15E0-4A2A-A112-DB58E87AB093}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.6207567804024444E-2"/>
+                  <c:y val="0.14763255353934537"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-15E0-4A2A-A112-DB58E87AB093}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5555555555555558E-3"/>
+                  <c:y val="0.10074170075638474"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-15E0-4A2A-A112-DB58E87AB093}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7777777777777779E-3"/>
+                  <c:y val="4.6687617944040187E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-15E0-4A2A-A112-DB58E87AB093}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2873,9 +3157,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2890,26 +3177,25 @@
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2968,135 +3254,15 @@
         <c:dLbls>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
-        <c:axId val="1152633295"/>
-        <c:axId val="1410772495"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1152633295"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1410772495"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1410772495"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1152633295"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3105,6 +3271,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69124803149606295"/>
+          <c:y val="0.2035460755192996"/>
+          <c:w val="0.21750371828521436"/>
+          <c:h val="0.44510238620046083"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3117,30 +3324,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -3162,6 +3353,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4677,7 +4869,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-829C-47CA-8305-7F12F30CD635}"/>
+                <c16:uniqueId val="{00000001-A8CC-4F6E-8031-3B198ED161F3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4724,7 +4916,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-829C-47CA-8305-7F12F30CD635}"/>
+                <c16:uniqueId val="{00000003-A8CC-4F6E-8031-3B198ED161F3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4771,7 +4963,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-829C-47CA-8305-7F12F30CD635}"/>
+                <c16:uniqueId val="{00000005-A8CC-4F6E-8031-3B198ED161F3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4818,7 +5010,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-829C-47CA-8305-7F12F30CD635}"/>
+                <c16:uniqueId val="{00000007-A8CC-4F6E-8031-3B198ED161F3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -10960,6 +11152,605 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="th-TH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>มีความสนใจที่จะเรียนรู้เทคโนโลยีใหม่ ๆ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="th-TH" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0B73-4DFF-8E99-237881EF3EF5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0B73-4DFF-8E99-237881EF3EF5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0B73-4DFF-8E99-237881EF3EF5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0B73-4DFF-8E99-237881EF3EF5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0B73-4DFF-8E99-237881EF3EF5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.6207567804024444E-2"/>
+                  <c:y val="0.14763255353934537"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0B73-4DFF-8E99-237881EF3EF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5555555555555558E-3"/>
+                  <c:y val="0.10074170075638474"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0B73-4DFF-8E99-237881EF3EF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.0641703750847591E-3"/>
+                  <c:y val="6.0695234450168882E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-0B73-4DFF-8E99-237881EF3EF5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="th-TH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$14:$W$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>มากที่สุด</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>มาก</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ปานกลาง</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>น้อย</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>น้อยที่สุด</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$15:$W$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0B73-4DFF-8E99-237881EF3EF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69124803149606295"/>
+          <c:y val="0.2035460755192996"/>
+          <c:w val="0.21750371828521436"/>
+          <c:h val="0.44510238620046083"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -11080,7 +11871,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1F3F-4F02-9D97-04C9AA6D1500}"/>
+                <c16:uniqueId val="{00000001-F711-403C-B322-5F94438FC49E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -11127,7 +11918,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1F3F-4F02-9D97-04C9AA6D1500}"/>
+                <c16:uniqueId val="{00000003-F711-403C-B322-5F94438FC49E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -11174,7 +11965,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1F3F-4F02-9D97-04C9AA6D1500}"/>
+                <c16:uniqueId val="{00000005-F711-403C-B322-5F94438FC49E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -11467,7 +12258,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-AB2D-41F8-9BD5-9B3867D82885}"/>
+                <c16:uniqueId val="{00000001-13F3-467B-B30B-65B9187C4994}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -11495,7 +12286,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-AB2D-41F8-9BD5-9B3867D82885}"/>
+                <c16:uniqueId val="{00000003-13F3-467B-B30B-65B9187C4994}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -11523,7 +12314,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-AB2D-41F8-9BD5-9B3867D82885}"/>
+                <c16:uniqueId val="{00000005-13F3-467B-B30B-65B9187C4994}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -11551,7 +12342,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-AB2D-41F8-9BD5-9B3867D82885}"/>
+                <c16:uniqueId val="{00000007-13F3-467B-B30B-65B9187C4994}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -11579,7 +12370,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-AB2D-41F8-9BD5-9B3867D82885}"/>
+                <c16:uniqueId val="{00000009-13F3-467B-B30B-65B9187C4994}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -11860,7 +12651,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E6AF-440D-9DA1-ECD58FB58223}"/>
+                <c16:uniqueId val="{00000001-C80B-46AE-8E4A-B4A45330CC2A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -11888,7 +12679,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E6AF-440D-9DA1-ECD58FB58223}"/>
+                <c16:uniqueId val="{00000003-C80B-46AE-8E4A-B4A45330CC2A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -11916,7 +12707,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E6AF-440D-9DA1-ECD58FB58223}"/>
+                <c16:uniqueId val="{00000005-C80B-46AE-8E4A-B4A45330CC2A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -11944,7 +12735,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-E6AF-440D-9DA1-ECD58FB58223}"/>
+                <c16:uniqueId val="{00000007-C80B-46AE-8E4A-B4A45330CC2A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -11972,7 +12763,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-E6AF-440D-9DA1-ECD58FB58223}"/>
+                <c16:uniqueId val="{00000009-C80B-46AE-8E4A-B4A45330CC2A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12253,7 +13044,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E336-4DC2-A2C4-07B97D38EFBB}"/>
+                <c16:uniqueId val="{00000001-F343-474E-A830-B7E3FD7A793D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12281,7 +13072,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E336-4DC2-A2C4-07B97D38EFBB}"/>
+                <c16:uniqueId val="{00000003-F343-474E-A830-B7E3FD7A793D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12309,7 +13100,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E336-4DC2-A2C4-07B97D38EFBB}"/>
+                <c16:uniqueId val="{00000005-F343-474E-A830-B7E3FD7A793D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12337,7 +13128,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-E336-4DC2-A2C4-07B97D38EFBB}"/>
+                <c16:uniqueId val="{00000007-F343-474E-A830-B7E3FD7A793D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12365,7 +13156,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-E336-4DC2-A2C4-07B97D38EFBB}"/>
+                <c16:uniqueId val="{00000009-F343-474E-A830-B7E3FD7A793D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12646,7 +13437,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C982-40E0-B334-2D4D602369C5}"/>
+                <c16:uniqueId val="{00000001-4998-41EA-B8B9-74DB2FB41F47}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12674,7 +13465,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C982-40E0-B334-2D4D602369C5}"/>
+                <c16:uniqueId val="{00000003-4998-41EA-B8B9-74DB2FB41F47}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12702,7 +13493,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C982-40E0-B334-2D4D602369C5}"/>
+                <c16:uniqueId val="{00000005-4998-41EA-B8B9-74DB2FB41F47}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12730,7 +13521,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-C982-40E0-B334-2D4D602369C5}"/>
+                <c16:uniqueId val="{00000007-4998-41EA-B8B9-74DB2FB41F47}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12758,7 +13549,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-C982-40E0-B334-2D4D602369C5}"/>
+                <c16:uniqueId val="{00000009-4998-41EA-B8B9-74DB2FB41F47}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13039,7 +13830,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-26FD-4E15-A87C-518FD46BE9DE}"/>
+                <c16:uniqueId val="{00000001-3116-49EC-B7E2-A6F4B6E8F47E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13067,7 +13858,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-26FD-4E15-A87C-518FD46BE9DE}"/>
+                <c16:uniqueId val="{00000003-3116-49EC-B7E2-A6F4B6E8F47E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13095,7 +13886,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-26FD-4E15-A87C-518FD46BE9DE}"/>
+                <c16:uniqueId val="{00000005-3116-49EC-B7E2-A6F4B6E8F47E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13123,7 +13914,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-26FD-4E15-A87C-518FD46BE9DE}"/>
+                <c16:uniqueId val="{00000007-3116-49EC-B7E2-A6F4B6E8F47E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13151,7 +13942,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-26FD-4E15-A87C-518FD46BE9DE}"/>
+                <c16:uniqueId val="{00000009-3116-49EC-B7E2-A6F4B6E8F47E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14516,6 +15307,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17988,6 +18819,508 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18557,7 +19890,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19127,7 +20460,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19697,7 +21030,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20267,7 +21600,509 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20837,509 +22672,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21909,7 +23242,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22479,7 +23812,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23049,7 +24382,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23619,7 +24952,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -24189,7 +25522,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -24759,7 +26092,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25329,7 +26662,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25899,7 +27232,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -26469,7 +27802,509 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -27039,509 +28874,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -28111,7 +29444,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -28681,7 +30014,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style33.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -29251,7 +30584,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -29821,7 +31154,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style35.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30391,197 +31724,162 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style35.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+<file path=xl/charts/style36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -30589,10 +31887,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -30608,19 +31906,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -30635,13 +31935,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -30654,17 +31954,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -30673,12 +31973,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -30692,7 +31992,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -30700,28 +32000,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -30731,28 +32019,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -30761,35 +32038,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -30798,19 +32076,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -30818,7 +32088,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -30826,7 +32096,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -30834,17 +32104,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -30857,14 +32127,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -30876,12 +32146,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -30890,7 +32160,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -30905,9 +32175,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -30925,9 +32195,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -30938,16 +32208,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -30955,7 +32220,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -36476,8 +37741,8 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>5291</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>264583</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
@@ -37228,7 +38493,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>52916</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>243417</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="66" name="แผนภูมิ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFA4F41-FEC0-42D1-A391-E59F60524A3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.64815</cdr:x>
+      <cdr:y>0.09009</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95084</cdr:x>
+      <cdr:y>0.23929</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B99BC3-D670-4E24-A1CB-2A1142D6B52D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2963333" y="169333"/>
+          <a:ext cx="1383912" cy="280440"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37554,8 +38901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCFE374-4D4F-4BE0-9F22-47B17A29B1A8}">
   <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37579,28 +38926,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
@@ -37609,41 +38956,41 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="12" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
       <c r="AD2" s="10"/>
       <c r="AE2" s="10"/>
     </row>
@@ -37759,17 +39106,17 @@
       <c r="S4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:31" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -37945,10 +39292,10 @@
       <c r="S7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:31" ht="23.25" x14ac:dyDescent="0.5">
@@ -38041,10 +39388,10 @@
       <c r="S10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
     </row>
     <row r="11" spans="1:31" ht="23.25" x14ac:dyDescent="0.5">
       <c r="E11" s="4"/>
@@ -38092,10 +39439,10 @@
       <c r="S13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
     </row>
     <row r="14" spans="1:31" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S14" s="2" t="s">
@@ -38135,10 +39482,10 @@
       <c r="S16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
     </row>
     <row r="17" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S17" s="2" t="s">
@@ -38178,10 +39525,10 @@
       <c r="S19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
     </row>
     <row r="20" spans="19:23" ht="23.25" x14ac:dyDescent="0.5">
       <c r="S20" s="2" t="s">
@@ -38996,29 +40343,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="S52:W52"/>
+    <mergeCell ref="S55:W55"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I2:R2"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="S4:W4"/>
-    <mergeCell ref="S58:W58"/>
-    <mergeCell ref="S31:W31"/>
-    <mergeCell ref="S34:W34"/>
+    <mergeCell ref="S2:AC2"/>
     <mergeCell ref="S37:W37"/>
     <mergeCell ref="S40:W40"/>
     <mergeCell ref="S43:W43"/>
-    <mergeCell ref="S2:AC2"/>
     <mergeCell ref="S46:W46"/>
     <mergeCell ref="S49:W49"/>
-    <mergeCell ref="S52:W52"/>
-    <mergeCell ref="S55:W55"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="S16:W16"/>
     <mergeCell ref="S7:W7"/>
     <mergeCell ref="S19:W19"/>
     <mergeCell ref="S75:W75"/>
@@ -39026,6 +40364,15 @@
     <mergeCell ref="S64:W64"/>
     <mergeCell ref="S67:W67"/>
     <mergeCell ref="S70:W70"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="S28:W28"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="S58:W58"/>
+    <mergeCell ref="S31:W31"/>
+    <mergeCell ref="S34:W34"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B5">
     <cfRule type="colorScale" priority="1">
@@ -39043,4 +40390,16 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2686ADE1-0D62-4447-8CB2-B772FFA821FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>